--- a/verhoudingen/AAAverhoudingen.xlsx
+++ b/verhoudingen/AAAverhoudingen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebcdd4c57331f9b2/overig/site/verhoudingen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E08E516-B5B7-4B38-A8CC-031C0B24A677}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC10482EA11965E05BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACE71724-BA63-44B0-8564-E645C93D37D1}"/>
   <bookViews>
-    <workbookView xWindow="58740" yWindow="4275" windowWidth="14400" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Verhoudingen</t>
   </si>
   <si>
-    <t>op ware grootte</t>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Op ware grootte</t>
+  </si>
+  <si>
+    <t>verhoudingstabel</t>
   </si>
 </sst>
 </file>
@@ -83,6 +89,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,26 +358,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
-    <col min="2" max="2" width="75.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.46484375" customWidth="1"/>
+    <col min="2" max="2" width="75.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
